--- a/xmlAttributes.xlsx
+++ b/xmlAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>agencyIcon</t>
   </si>
@@ -92,76 +92,97 @@
     <t>state</t>
   </si>
   <si>
-    <t>myJson[i] = {shortName: $(this).attr("shortName")};</t>
-  </si>
-  <si>
-    <t>myJson[i] = {agencyIcon: $(this).attr("agencyIcon"),</t>
-  </si>
-  <si>
-    <t>agencyName: $(this).attr("agencyName"),</t>
-  </si>
-  <si>
-    <t>availabilityStatus: $(this).attr("availabilityStatus"),</t>
-  </si>
-  <si>
-    <t>contractID: $(this).attr("contractID"),</t>
-  </si>
-  <si>
-    <t>contractType: $(this).attr("contractType"),</t>
-  </si>
-  <si>
-    <t>facilityID: $(this).attr("facilityID"),</t>
-  </si>
-  <si>
-    <t>facilityName: $(this).attr("facilityName"),</t>
-  </si>
-  <si>
-    <t>State: $(this).attr("State"),</t>
-  </si>
-  <si>
-    <t>faciltyPhoto: $(this).attr("faciltyPhoto"),</t>
-  </si>
-  <si>
-    <t>favorite: $(this).attr("favorite"),</t>
-  </si>
-  <si>
-    <t>latitude: $(this).attr("latitude"),</t>
-  </si>
-  <si>
-    <t>listingOnly: $(this).attr("listingOnly"),</t>
-  </si>
-  <si>
-    <t>longitude: $(this).attr("longitude"),</t>
-  </si>
-  <si>
-    <t>regionName: $(this).attr("regionName"),</t>
-  </si>
-  <si>
-    <t>reservationChannel: $(this).attr("reservationChannel"),</t>
-  </si>
-  <si>
-    <t>shortName: $(this).attr("shortName"),</t>
-  </si>
-  <si>
-    <t>sitesWithAmps: $(this).attr("sitesWithAmps"),</t>
-  </si>
-  <si>
-    <t>sitesWithPetsAllowed: $(this).attr("sitesWithPetsAllowed"),</t>
-  </si>
-  <si>
-    <t>sitesWithSewerHookup: $(this).attr("sitesWithSewerHookup"),</t>
-  </si>
-  <si>
-    <t>sitesWithWaterHookup: $(this).attr("sitesWithWaterHookup"),</t>
-  </si>
-  <si>
-    <t>sitesWithWaterfront: $(this).attr("sitesWithWaterfront"),</t>
-  </si>
-  <si>
-    <t>state: $(this).attr("state")};</t>
-  </si>
-  <si>
     <t>Park</t>
+  </si>
+  <si>
+    <t>withAmps</t>
+  </si>
+  <si>
+    <t>petsAllowed</t>
+  </si>
+  <si>
+    <t>sewerHookup</t>
+  </si>
+  <si>
+    <t>waterHookup</t>
+  </si>
+  <si>
+    <t>waterfront</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>'agencyIcon': obj['$'].agencyIcon,</t>
+  </si>
+  <si>
+    <t>'agencyName': obj['$'].agencyName,</t>
+  </si>
+  <si>
+    <t>'availabilityStatus': obj['$'].availabilityStatus,</t>
+  </si>
+  <si>
+    <t>'contractID': obj['$'].contractID,</t>
+  </si>
+  <si>
+    <t>'contractType': obj['$'].contractType,</t>
+  </si>
+  <si>
+    <t>'facilityID': obj['$'].facilityID,</t>
+  </si>
+  <si>
+    <t>'facilityName': obj['$'].facilityName,</t>
+  </si>
+  <si>
+    <t>'State': obj['$'].State,</t>
+  </si>
+  <si>
+    <t>'Park': obj['$'].Park,</t>
+  </si>
+  <si>
+    <t>'faciltyPhoto': obj['$'].faciltyPhoto,</t>
+  </si>
+  <si>
+    <t>'favorite': obj['$'].favorite,</t>
+  </si>
+  <si>
+    <t>'lat': obj['$'].latitude,</t>
+  </si>
+  <si>
+    <t>'listingOnly': obj['$'].listingOnly,</t>
+  </si>
+  <si>
+    <t>'long': obj['$'].longitude,</t>
+  </si>
+  <si>
+    <t>'regionName': obj['$'].regionName,</t>
+  </si>
+  <si>
+    <t>'reservationChannel': obj['$'].reservationChannel,</t>
+  </si>
+  <si>
+    <t>'shortName': obj['$'].shortName,</t>
+  </si>
+  <si>
+    <t>'withAmps': obj['$'].sitesWithAmps,</t>
+  </si>
+  <si>
+    <t>'petsAllowed': obj['$'].sitesWithPetsAllowed,</t>
+  </si>
+  <si>
+    <t>'sewerHookup': obj['$'].sitesWithSewerHookup,</t>
+  </si>
+  <si>
+    <t>'waterHookup': obj['$'].sitesWithWaterHookup,</t>
+  </si>
+  <si>
+    <t>'waterfront': obj['$'].sitesWithWaterfront,</t>
+  </si>
+  <si>
+    <t>'state': obj['$'].state,</t>
   </si>
 </sst>
 </file>
@@ -513,297 +534,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.CONCAT("'",A1,"': obj['$'].",B1,",")</f>
+        <v>'agencyIcon': obj['$'].agencyIcon,</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:D23" si="0">_xlfn.CONCAT("'",A2,"': obj['$'].",B2,",")</f>
+        <v>'agencyName': obj['$'].agencyName,</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>'availabilityStatus': obj['$'].availabilityStatus,</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>'contractID': obj['$'].contractID,</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>'contractType': obj['$'].contractType,</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>'facilityID': obj['$'].facilityID,</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>'facilityName': obj['$'].facilityName,</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>'State': obj['$'].State,</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("myJson[i] = {",A2,": $(this).attr(""",A2,"""),")</f>
-        <v>myJson[i] = {agencyIcon: $(this).attr("agencyIcon"),</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Park': obj['$'].Park,</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>'faciltyPhoto': obj['$'].faciltyPhoto,</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>'favorite': obj['$'].favorite,</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>'lat': obj['$'].latitude,</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>'listingOnly': obj['$'].listingOnly,</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>'long': obj['$'].longitude,</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>'regionName': obj['$'].regionName,</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>'reservationChannel': obj['$'].reservationChannel,</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>'shortName': obj['$'].shortName,</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f>_xlfn.CONCAT(A3,": $(this).attr(""",A3,"""),")</f>
-        <v>agencyName: $(this).attr("agencyName"),</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>'withAmps': obj['$'].sitesWithAmps,</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:C24" si="0">_xlfn.CONCAT(A4,": $(this).attr(""",A4,"""),")</f>
-        <v>availabilityStatus: $(this).attr("availabilityStatus"),</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>'petsAllowed': obj['$'].sitesWithPetsAllowed,</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>contractID: $(this).attr("contractID"),</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>'sewerHookup': obj['$'].sitesWithSewerHookup,</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>contractType: $(this).attr("contractType"),</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>'waterHookup': obj['$'].sitesWithWaterHookup,</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>facilityID: $(this).attr("facilityID"),</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>facilityName: $(this).attr("facilityName"),</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>State: $(this).attr("State"),</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Park: $(this).attr("Park"),</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Park: $(this).attr("Park"),: $(this).attr("Park: $(this).attr("Park"),"),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>faciltyPhoto: $(this).attr("faciltyPhoto"),</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>favorite: $(this).attr("favorite"),</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>latitude: $(this).attr("latitude"),</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>listingOnly: $(this).attr("listingOnly"),</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>longitude: $(this).attr("longitude"),</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>regionName: $(this).attr("regionName"),</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>reservationChannel: $(this).attr("reservationChannel"),</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>shortName: $(this).attr("shortName"),</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>sitesWithAmps: $(this).attr("sitesWithAmps"),</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>sitesWithPetsAllowed: $(this).attr("sitesWithPetsAllowed"),</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>sitesWithSewerHookup: $(this).attr("sitesWithSewerHookup"),</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>sitesWithWaterHookup: $(this).attr("sitesWithWaterHookup"),</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>'waterfront': obj['$'].sitesWithWaterfront,</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>sitesWithWaterfront: $(this).attr("sitesWithWaterfront"),</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="str">
-        <f>_xlfn.CONCAT(A24,": $(this).attr(""",A24,""")};")</f>
-        <v>state: $(this).attr("state")};</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>'state': obj['$'].state,</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
